--- a/Code/Results/Cases/Case_8_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.79251540130746</v>
+        <v>12.38077504246875</v>
       </c>
       <c r="C2">
-        <v>6.710855479354152</v>
+        <v>7.032721814752286</v>
       </c>
       <c r="D2">
-        <v>5.064621224106677</v>
+        <v>5.329977194523033</v>
       </c>
       <c r="E2">
-        <v>7.404584766598338</v>
+        <v>7.614733818787952</v>
       </c>
       <c r="F2">
-        <v>24.40582278064021</v>
+        <v>23.1492201969812</v>
       </c>
       <c r="G2">
-        <v>2.125562437866619</v>
+        <v>7.231916701514543</v>
       </c>
       <c r="H2">
-        <v>3.436991461459954</v>
+        <v>3.100040724085308</v>
       </c>
       <c r="I2">
-        <v>3.92211972710984</v>
+        <v>3.551402134982348</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.73539149841222</v>
+        <v>16.62958762531886</v>
       </c>
       <c r="L2">
-        <v>5.93354315988196</v>
+        <v>13.23805174857893</v>
       </c>
       <c r="M2">
-        <v>10.32149999499812</v>
+        <v>11.34671125163599</v>
       </c>
       <c r="N2">
-        <v>6.478656180437263</v>
+        <v>5.96998065965918</v>
       </c>
       <c r="O2">
-        <v>9.954305002805508</v>
+        <v>10.50252066183787</v>
       </c>
       <c r="P2">
-        <v>14.07276400602965</v>
+        <v>6.722551949169256</v>
       </c>
       <c r="Q2">
-        <v>18.42170929312973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.825776498969695</v>
+      </c>
+      <c r="R2">
+        <v>13.65366388261919</v>
+      </c>
+      <c r="S2">
+        <v>17.28882610274245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.03060169764553</v>
+        <v>11.63787447673742</v>
       </c>
       <c r="C3">
-        <v>6.465714494935313</v>
+        <v>6.745056121068438</v>
       </c>
       <c r="D3">
-        <v>4.901032665862847</v>
+        <v>5.179834001238675</v>
       </c>
       <c r="E3">
-        <v>7.306199078069321</v>
+        <v>7.541105132656751</v>
       </c>
       <c r="F3">
-        <v>24.21045572082835</v>
+        <v>22.95082365924718</v>
       </c>
       <c r="G3">
-        <v>2.128872321864231</v>
+        <v>7.670613134366917</v>
       </c>
       <c r="H3">
-        <v>3.615962228359086</v>
+        <v>3.258698920363522</v>
       </c>
       <c r="I3">
-        <v>4.061472329196761</v>
+        <v>3.667724454583298</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.76654692446814</v>
+        <v>16.66326808864574</v>
       </c>
       <c r="L3">
-        <v>5.900792344858851</v>
+        <v>13.34841591578724</v>
       </c>
       <c r="M3">
-        <v>9.699494674459514</v>
+        <v>11.32244966815105</v>
       </c>
       <c r="N3">
-        <v>6.355207674560203</v>
+        <v>5.944205466628719</v>
       </c>
       <c r="O3">
-        <v>9.625212355535611</v>
+        <v>9.900199250014376</v>
       </c>
       <c r="P3">
-        <v>14.20628624514702</v>
+        <v>6.596947226469974</v>
       </c>
       <c r="Q3">
-        <v>18.39140703737142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.492718753400627</v>
+      </c>
+      <c r="R3">
+        <v>13.77077392942158</v>
+      </c>
+      <c r="S3">
+        <v>17.2459995106182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.53627267963748</v>
+        <v>11.15396996131705</v>
       </c>
       <c r="C4">
-        <v>6.311223981546021</v>
+        <v>6.564260127470487</v>
       </c>
       <c r="D4">
-        <v>4.798741247434896</v>
+        <v>5.08683858796068</v>
       </c>
       <c r="E4">
-        <v>7.244436816523551</v>
+        <v>7.495098420557735</v>
       </c>
       <c r="F4">
-        <v>24.09651021135956</v>
+        <v>22.83245876087564</v>
       </c>
       <c r="G4">
-        <v>2.130978833738057</v>
+        <v>7.949931681424319</v>
       </c>
       <c r="H4">
-        <v>3.730088561102422</v>
+        <v>3.35993624298525</v>
       </c>
       <c r="I4">
-        <v>4.151022784531508</v>
+        <v>3.742846097749271</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.78905959941503</v>
+        <v>16.68574268897999</v>
       </c>
       <c r="L4">
-        <v>5.87978860971951</v>
+        <v>13.416926058984</v>
       </c>
       <c r="M4">
-        <v>9.295763887879462</v>
+        <v>11.32254004273793</v>
       </c>
       <c r="N4">
-        <v>6.27895949281065</v>
+        <v>5.9276282348512</v>
       </c>
       <c r="O4">
-        <v>9.417988624492816</v>
+        <v>9.509957736934526</v>
       </c>
       <c r="P4">
-        <v>14.28984365779289</v>
+        <v>6.51971610316542</v>
       </c>
       <c r="Q4">
-        <v>18.37791980226644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.282429534510527</v>
+      </c>
+      <c r="R4">
+        <v>13.84417199759994</v>
+      </c>
+      <c r="S4">
+        <v>17.22271919965935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.32361494923164</v>
+        <v>10.94510105604834</v>
       </c>
       <c r="C5">
-        <v>6.251527260517889</v>
+        <v>6.494247852490965</v>
       </c>
       <c r="D5">
-        <v>4.757307247131396</v>
+        <v>5.049450697558338</v>
       </c>
       <c r="E5">
-        <v>7.218245436572679</v>
+        <v>7.475515198231284</v>
       </c>
       <c r="F5">
-        <v>24.04594308506698</v>
+        <v>22.77926979646093</v>
       </c>
       <c r="G5">
-        <v>2.131862022590448</v>
+        <v>8.067097737584534</v>
       </c>
       <c r="H5">
-        <v>3.777974134071383</v>
+        <v>3.402438146678625</v>
       </c>
       <c r="I5">
-        <v>4.190924639232805</v>
+        <v>3.777263426047324</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.79489055876459</v>
+        <v>16.69112110098921</v>
       </c>
       <c r="L5">
-        <v>5.870688527737175</v>
+        <v>13.44092697720685</v>
       </c>
       <c r="M5">
-        <v>9.125431701945184</v>
+        <v>11.3240815981916</v>
       </c>
       <c r="N5">
-        <v>6.248861088570281</v>
+        <v>5.920394473001028</v>
       </c>
       <c r="O5">
-        <v>9.331729965928293</v>
+        <v>9.345520977980375</v>
       </c>
       <c r="P5">
-        <v>14.32378883583909</v>
+        <v>6.489303376127051</v>
       </c>
       <c r="Q5">
-        <v>18.36967224132016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.194745941980296</v>
+      </c>
+      <c r="R5">
+        <v>13.87401912359573</v>
+      </c>
+      <c r="S5">
+        <v>17.20980739687159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28222548806841</v>
+        <v>10.90420082526637</v>
       </c>
       <c r="C6">
-        <v>6.24675263955153</v>
+        <v>6.48827044319231</v>
       </c>
       <c r="D6">
-        <v>4.751212368550493</v>
+        <v>5.044039047543466</v>
       </c>
       <c r="E6">
-        <v>7.213031590960596</v>
+        <v>7.471469268537034</v>
       </c>
       <c r="F6">
-        <v>24.03072307822112</v>
+        <v>22.76335292747514</v>
       </c>
       <c r="G6">
-        <v>2.132016984190676</v>
+        <v>8.087694009534138</v>
       </c>
       <c r="H6">
-        <v>3.786357838894824</v>
+        <v>3.409891831847307</v>
       </c>
       <c r="I6">
-        <v>4.200676424304752</v>
+        <v>3.786720890707555</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.79079947421386</v>
+        <v>16.68688070605088</v>
       </c>
       <c r="L6">
-        <v>5.868780840042072</v>
+        <v>13.43991250261775</v>
       </c>
       <c r="M6">
-        <v>9.096389225172203</v>
+        <v>11.32178046307374</v>
       </c>
       <c r="N6">
-        <v>6.245158863669627</v>
+        <v>5.918830907863678</v>
       </c>
       <c r="O6">
-        <v>9.316573916124087</v>
+        <v>9.317505239824348</v>
       </c>
       <c r="P6">
-        <v>14.32883062464081</v>
+        <v>6.485550626145499</v>
       </c>
       <c r="Q6">
-        <v>18.36346678141862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.17932370634327</v>
+      </c>
+      <c r="R6">
+        <v>13.87846072524395</v>
+      </c>
+      <c r="S6">
+        <v>17.20260931444838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.51823956328992</v>
+        <v>11.12630364201657</v>
       </c>
       <c r="C7">
-        <v>6.324464405604527</v>
+        <v>6.564278533604639</v>
       </c>
       <c r="D7">
-        <v>4.800367048440343</v>
+        <v>5.09875596977958</v>
       </c>
       <c r="E7">
-        <v>7.241798571638915</v>
+        <v>7.495543761923784</v>
       </c>
       <c r="F7">
-        <v>24.07701284538634</v>
+        <v>22.77781439080262</v>
       </c>
       <c r="G7">
-        <v>2.131009888511267</v>
+        <v>8.000234623834555</v>
       </c>
       <c r="H7">
-        <v>3.731714190049466</v>
+        <v>3.3627304701844</v>
       </c>
       <c r="I7">
-        <v>4.159657357753162</v>
+        <v>3.754267517257175</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.77520662527325</v>
+        <v>16.65450024553769</v>
       </c>
       <c r="L7">
-        <v>5.878636319190334</v>
+        <v>13.38766810153176</v>
       </c>
       <c r="M7">
-        <v>9.292337902265128</v>
+        <v>11.3047189939381</v>
       </c>
       <c r="N7">
-        <v>6.282083018457699</v>
+        <v>5.926037947069509</v>
       </c>
       <c r="O7">
-        <v>9.414762996668486</v>
+        <v>9.493768267625851</v>
       </c>
       <c r="P7">
-        <v>14.28865675763327</v>
+        <v>6.521805715422663</v>
       </c>
       <c r="Q7">
-        <v>18.36442443663536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.275401176495507</v>
+      </c>
+      <c r="R7">
+        <v>13.84109835678888</v>
+      </c>
+      <c r="S7">
+        <v>17.18192699314761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.516676756817</v>
+        <v>12.08249052142957</v>
       </c>
       <c r="C8">
-        <v>6.645116896881505</v>
+        <v>6.907718667752187</v>
       </c>
       <c r="D8">
-        <v>5.011408035230711</v>
+        <v>5.314205580573973</v>
       </c>
       <c r="E8">
-        <v>7.368016639009681</v>
+        <v>7.596202103116003</v>
       </c>
       <c r="F8">
-        <v>24.31270896572699</v>
+        <v>22.94261090381781</v>
       </c>
       <c r="G8">
-        <v>2.126712408587118</v>
+        <v>7.604894820170008</v>
       </c>
       <c r="H8">
-        <v>3.499053425214094</v>
+        <v>3.159197604243964</v>
       </c>
       <c r="I8">
-        <v>3.979580835739521</v>
+        <v>3.606898991433943</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.72712592659929</v>
+        <v>16.56632198160814</v>
       </c>
       <c r="L8">
-        <v>5.921135831282225</v>
+        <v>13.21056305880091</v>
       </c>
       <c r="M8">
-        <v>10.11015663729447</v>
+        <v>11.28713002810392</v>
       </c>
       <c r="N8">
-        <v>6.440772145288559</v>
+        <v>5.958365556601978</v>
       </c>
       <c r="O8">
-        <v>9.839327612382977</v>
+        <v>10.25768562183097</v>
       </c>
       <c r="P8">
-        <v>14.11651963947469</v>
+        <v>6.680572852792451</v>
       </c>
       <c r="Q8">
-        <v>18.3926538847646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.697579701885543</v>
+      </c>
+      <c r="R8">
+        <v>13.68649163505928</v>
+      </c>
+      <c r="S8">
+        <v>17.1680352861312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.28552980658969</v>
+        <v>13.79510436233998</v>
       </c>
       <c r="C9">
-        <v>7.217592966142621</v>
+        <v>7.572506620812669</v>
       </c>
       <c r="D9">
-        <v>5.40472173591604</v>
+        <v>5.686291665574586</v>
       </c>
       <c r="E9">
-        <v>7.608360724514673</v>
+        <v>7.780159400673976</v>
       </c>
       <c r="F9">
-        <v>24.85511343540946</v>
+        <v>23.45257486821413</v>
       </c>
       <c r="G9">
-        <v>2.118831436994421</v>
+        <v>6.62622472454332</v>
       </c>
       <c r="H9">
-        <v>3.07426168654041</v>
+        <v>2.783727511249635</v>
       </c>
       <c r="I9">
-        <v>3.64450778253747</v>
+        <v>3.326739680499475</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.68502778833137</v>
+        <v>16.49522742695758</v>
       </c>
       <c r="L9">
-        <v>5.999216202578441</v>
+        <v>12.94941839050844</v>
       </c>
       <c r="M9">
-        <v>11.5418735499079</v>
+        <v>11.42292242367993</v>
       </c>
       <c r="N9">
-        <v>6.741177771387713</v>
+        <v>6.019425760055396</v>
       </c>
       <c r="O9">
-        <v>10.63020843037254</v>
+        <v>11.64115548758648</v>
       </c>
       <c r="P9">
-        <v>13.79359513195171</v>
+        <v>6.987398975305916</v>
       </c>
       <c r="Q9">
-        <v>18.51326160009434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.49269384474275</v>
+      </c>
+      <c r="R9">
+        <v>13.4043639463332</v>
+      </c>
+      <c r="S9">
+        <v>17.28688216538755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.41403237134381</v>
+        <v>14.84088868551936</v>
       </c>
       <c r="C10">
-        <v>7.641275273840376</v>
+        <v>7.985283148126928</v>
       </c>
       <c r="D10">
-        <v>5.648926107741305</v>
+        <v>5.972273129882389</v>
       </c>
       <c r="E10">
-        <v>7.717344544287188</v>
+        <v>7.8698956421116</v>
       </c>
       <c r="F10">
-        <v>25.1671497782357</v>
+        <v>23.54809222290186</v>
       </c>
       <c r="G10">
-        <v>2.113482017677112</v>
+        <v>6.862529010862946</v>
       </c>
       <c r="H10">
-        <v>2.806500591226235</v>
+        <v>2.556650394113116</v>
       </c>
       <c r="I10">
-        <v>3.426228746748999</v>
+        <v>3.153685999510719</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.6119058000504</v>
+        <v>16.30515312053789</v>
       </c>
       <c r="L10">
-        <v>6.041112241703684</v>
+        <v>12.65325556081331</v>
       </c>
       <c r="M10">
-        <v>12.47606729567947</v>
+        <v>11.47501072737098</v>
       </c>
       <c r="N10">
-        <v>6.898497205496125</v>
+        <v>6.049089728098113</v>
       </c>
       <c r="O10">
-        <v>11.12131088154784</v>
+        <v>12.48645617187525</v>
       </c>
       <c r="P10">
-        <v>13.55852887282507</v>
+        <v>7.143980624239298</v>
       </c>
       <c r="Q10">
-        <v>18.56102275332961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.96548140957257</v>
+      </c>
+      <c r="R10">
+        <v>13.19747446128269</v>
+      </c>
+      <c r="S10">
+        <v>17.1801349821615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.60654911193424</v>
+        <v>14.95914374543721</v>
       </c>
       <c r="C11">
-        <v>8.005322082239243</v>
+        <v>8.193908478639747</v>
       </c>
       <c r="D11">
-        <v>5.476679844976376</v>
+        <v>5.907609336134423</v>
       </c>
       <c r="E11">
-        <v>7.303178588821381</v>
+        <v>7.489128414438924</v>
       </c>
       <c r="F11">
-        <v>24.37185556976992</v>
+        <v>22.40041352068991</v>
       </c>
       <c r="G11">
-        <v>2.111920112466468</v>
+        <v>9.68313683409751</v>
       </c>
       <c r="H11">
-        <v>3.523902222099454</v>
+        <v>3.344800697790346</v>
       </c>
       <c r="I11">
-        <v>3.382980673963688</v>
+        <v>3.136082102037195</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.10462239476178</v>
+        <v>15.65749571804905</v>
       </c>
       <c r="L11">
-        <v>6.00025916661978</v>
+        <v>12.12570622212422</v>
       </c>
       <c r="M11">
-        <v>12.78507204879411</v>
+        <v>11.04683244716151</v>
       </c>
       <c r="N11">
-        <v>6.46441511737733</v>
+        <v>6.016320990821337</v>
       </c>
       <c r="O11">
-        <v>10.84678098671576</v>
+        <v>12.66190235161322</v>
       </c>
       <c r="P11">
-        <v>13.42804625868482</v>
+        <v>6.688037761512041</v>
       </c>
       <c r="Q11">
-        <v>18.03809238299101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.65284671403515</v>
+      </c>
+      <c r="R11">
+        <v>13.11157524745437</v>
+      </c>
+      <c r="S11">
+        <v>16.38885798975593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.55394935075121</v>
+        <v>14.88757433880734</v>
       </c>
       <c r="C12">
-        <v>8.212786007963251</v>
+        <v>8.30966672704028</v>
       </c>
       <c r="D12">
-        <v>5.274706456430234</v>
+        <v>5.753206795218055</v>
       </c>
       <c r="E12">
-        <v>7.012925813165484</v>
+        <v>7.209167351020874</v>
       </c>
       <c r="F12">
-        <v>23.65182126646612</v>
+        <v>21.55505954945493</v>
       </c>
       <c r="G12">
-        <v>2.111624877070552</v>
+        <v>11.29887717739478</v>
       </c>
       <c r="H12">
-        <v>4.695289513350127</v>
+        <v>4.564669672525746</v>
       </c>
       <c r="I12">
-        <v>3.374422977719944</v>
+        <v>3.133365156383014</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.71473299372402</v>
+        <v>15.24297604563561</v>
       </c>
       <c r="L12">
-        <v>6.007002642497994</v>
+        <v>11.81983331874713</v>
       </c>
       <c r="M12">
-        <v>12.85715193389878</v>
+        <v>10.73508043193376</v>
       </c>
       <c r="N12">
-        <v>6.081515850303234</v>
+        <v>6.03247935048071</v>
       </c>
       <c r="O12">
-        <v>10.50952649381706</v>
+        <v>12.6751182127578</v>
       </c>
       <c r="P12">
-        <v>13.38132441546804</v>
+        <v>6.289851188990514</v>
       </c>
       <c r="Q12">
-        <v>17.60075636854222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.29950257836958</v>
+      </c>
+      <c r="R12">
+        <v>13.10513387144369</v>
+      </c>
+      <c r="S12">
+        <v>15.85950947201046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.28995579395417</v>
+        <v>14.66412237302103</v>
       </c>
       <c r="C13">
-        <v>8.334307503789006</v>
+        <v>8.417413381607282</v>
       </c>
       <c r="D13">
-        <v>5.03698569339079</v>
+        <v>5.498495416210114</v>
       </c>
       <c r="E13">
-        <v>6.804770285437102</v>
+        <v>6.998043662414775</v>
       </c>
       <c r="F13">
-        <v>22.9146094044376</v>
+        <v>20.92530369155373</v>
       </c>
       <c r="G13">
-        <v>2.112315706596</v>
+        <v>10.97173107186327</v>
       </c>
       <c r="H13">
-        <v>6.001565574271585</v>
+        <v>5.895133646090217</v>
       </c>
       <c r="I13">
-        <v>3.405253563284466</v>
+        <v>3.156868423831154</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.371483846027</v>
+        <v>14.98588542483139</v>
       </c>
       <c r="L13">
-        <v>6.046974365783381</v>
+        <v>11.64924753479642</v>
       </c>
       <c r="M13">
-        <v>12.75240883585641</v>
+        <v>10.50950687930954</v>
       </c>
       <c r="N13">
-        <v>5.722532406171347</v>
+        <v>6.083640105960872</v>
       </c>
       <c r="O13">
-        <v>10.09478219436099</v>
+        <v>12.58898168195688</v>
       </c>
       <c r="P13">
-        <v>13.3919451563665</v>
+        <v>5.921247902675035</v>
       </c>
       <c r="Q13">
-        <v>17.18184036610804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.891787787689115</v>
+      </c>
+      <c r="R13">
+        <v>13.14011821206744</v>
+      </c>
+      <c r="S13">
+        <v>15.52626991276055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.00206923613651</v>
+        <v>14.43128275095138</v>
       </c>
       <c r="C14">
-        <v>8.386196096472634</v>
+        <v>8.49540282207195</v>
       </c>
       <c r="D14">
-        <v>4.853535215969623</v>
+        <v>5.276421330451616</v>
       </c>
       <c r="E14">
-        <v>6.712213783181907</v>
+        <v>6.903347481536406</v>
       </c>
       <c r="F14">
-        <v>22.38772790191433</v>
+        <v>20.56754951548914</v>
       </c>
       <c r="G14">
-        <v>2.113248556049864</v>
+        <v>9.909082354129788</v>
       </c>
       <c r="H14">
-        <v>6.956732881487894</v>
+        <v>6.859687509830802</v>
       </c>
       <c r="I14">
-        <v>3.447230305468111</v>
+        <v>3.188530878651671</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.15200813949962</v>
+        <v>14.86730737033331</v>
       </c>
       <c r="L14">
-        <v>6.094896440464585</v>
+        <v>11.57943776099016</v>
       </c>
       <c r="M14">
-        <v>12.59746253168107</v>
+        <v>10.386913817649</v>
       </c>
       <c r="N14">
-        <v>5.490680830300009</v>
+        <v>6.139740155480862</v>
       </c>
       <c r="O14">
-        <v>9.765908621333546</v>
+        <v>12.48132548061954</v>
       </c>
       <c r="P14">
-        <v>13.42583168866183</v>
+        <v>5.68478434930667</v>
       </c>
       <c r="Q14">
-        <v>16.89543034366513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.577404466857258</v>
+      </c>
+      <c r="R14">
+        <v>13.17905415365644</v>
+      </c>
+      <c r="S14">
+        <v>15.36994356034614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.8811672990565</v>
+        <v>14.3351817855532</v>
       </c>
       <c r="C15">
-        <v>8.385428613068505</v>
+        <v>8.517014088360629</v>
       </c>
       <c r="D15">
-        <v>4.802005011379482</v>
+        <v>5.20448348058264</v>
       </c>
       <c r="E15">
-        <v>6.695954944378006</v>
+        <v>6.888127140624611</v>
       </c>
       <c r="F15">
-        <v>22.25153569797356</v>
+        <v>20.51149497500518</v>
       </c>
       <c r="G15">
-        <v>2.113702902961267</v>
+        <v>9.320618354104106</v>
       </c>
       <c r="H15">
-        <v>7.182736839364567</v>
+        <v>7.086134209612243</v>
       </c>
       <c r="I15">
-        <v>3.470100969234378</v>
+        <v>3.206983251132116</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.1045243695605</v>
+        <v>14.86120151217152</v>
       </c>
       <c r="L15">
-        <v>6.1070785887925</v>
+        <v>11.58098631482105</v>
       </c>
       <c r="M15">
-        <v>12.52088087986199</v>
+        <v>10.36935772219858</v>
       </c>
       <c r="N15">
-        <v>5.437589632543598</v>
+        <v>6.154427895908354</v>
       </c>
       <c r="O15">
-        <v>9.668871855692164</v>
+        <v>12.43115464317531</v>
       </c>
       <c r="P15">
-        <v>13.44455762986825</v>
+        <v>5.631560990116799</v>
       </c>
       <c r="Q15">
-        <v>16.82644979348308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.487900141000445</v>
+      </c>
+      <c r="R15">
+        <v>13.19398741050449</v>
+      </c>
+      <c r="S15">
+        <v>15.36169235197474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.44439844024989</v>
+        <v>13.9930854794067</v>
       </c>
       <c r="C16">
-        <v>8.198300294166859</v>
+        <v>8.460358850283429</v>
       </c>
       <c r="D16">
-        <v>4.739088589566872</v>
+        <v>5.05179854076907</v>
       </c>
       <c r="E16">
-        <v>6.686511512948432</v>
+        <v>6.891472821416802</v>
       </c>
       <c r="F16">
-        <v>22.24846341087285</v>
+        <v>20.83147324834931</v>
       </c>
       <c r="G16">
-        <v>2.115856429268464</v>
+        <v>7.004932852447018</v>
       </c>
       <c r="H16">
-        <v>7.009329265048003</v>
+        <v>6.896516007920769</v>
       </c>
       <c r="I16">
-        <v>3.562103456432689</v>
+        <v>3.274736910871914</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.19933417311195</v>
+        <v>15.0961005534161</v>
       </c>
       <c r="L16">
-        <v>6.076404347558694</v>
+        <v>11.77741618642944</v>
       </c>
       <c r="M16">
-        <v>12.15236658125065</v>
+        <v>10.49823080529651</v>
       </c>
       <c r="N16">
-        <v>5.440656924585469</v>
+        <v>6.129273138054578</v>
       </c>
       <c r="O16">
-        <v>9.528995140502854</v>
+        <v>12.18759473357719</v>
       </c>
       <c r="P16">
-        <v>13.53529741930619</v>
+        <v>5.643784509011858</v>
       </c>
       <c r="Q16">
-        <v>16.88124859642307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.38109365118563</v>
+      </c>
+      <c r="R16">
+        <v>13.24505854559931</v>
+      </c>
+      <c r="S16">
+        <v>15.65762218705028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.26297354601471</v>
+        <v>13.8430269819488</v>
       </c>
       <c r="C17">
-        <v>8.023999076663634</v>
+        <v>8.349974014365495</v>
       </c>
       <c r="D17">
-        <v>4.790673975799447</v>
+        <v>5.066932634392841</v>
       </c>
       <c r="E17">
-        <v>6.719391285454197</v>
+        <v>6.928510487633689</v>
       </c>
       <c r="F17">
-        <v>22.52743095597098</v>
+        <v>21.23209754896973</v>
       </c>
       <c r="G17">
-        <v>2.117018217392838</v>
+        <v>6.437895927599627</v>
       </c>
       <c r="H17">
-        <v>6.342897421432128</v>
+        <v>6.209746727586745</v>
       </c>
       <c r="I17">
-        <v>3.61108654753673</v>
+        <v>3.311763332871381</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.38690246135957</v>
+        <v>15.32671884730704</v>
       </c>
       <c r="L17">
-        <v>6.023895298429232</v>
+        <v>11.96645030673988</v>
       </c>
       <c r="M17">
-        <v>11.94992786941923</v>
+        <v>10.64522689589813</v>
       </c>
       <c r="N17">
-        <v>5.562809346224031</v>
+        <v>6.076489659601777</v>
       </c>
       <c r="O17">
-        <v>9.60051349692263</v>
+        <v>12.04033339558875</v>
       </c>
       <c r="P17">
-        <v>13.58760248387785</v>
+        <v>5.774818566001528</v>
       </c>
       <c r="Q17">
-        <v>17.07536148932934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.466054384109841</v>
+      </c>
+      <c r="R17">
+        <v>13.27388484751788</v>
+      </c>
+      <c r="S17">
+        <v>15.94132751261371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.2968779109292</v>
+        <v>13.87310416098024</v>
       </c>
       <c r="C18">
-        <v>7.832833467683209</v>
+        <v>8.197826839234864</v>
       </c>
       <c r="D18">
-        <v>4.945587212808353</v>
+        <v>5.206388563132791</v>
       </c>
       <c r="E18">
-        <v>6.843596096896386</v>
+        <v>7.04491247642853</v>
       </c>
       <c r="F18">
-        <v>23.09349749916465</v>
+        <v>21.82830107774361</v>
       </c>
       <c r="G18">
-        <v>2.11739996243878</v>
+        <v>6.293775955458565</v>
       </c>
       <c r="H18">
-        <v>5.228363719184873</v>
+        <v>5.062953272581606</v>
       </c>
       <c r="I18">
-        <v>3.6180102730593</v>
+        <v>3.312831740029457</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.68886064593744</v>
+        <v>15.62323907479997</v>
       </c>
       <c r="L18">
-        <v>5.969413465606475</v>
+        <v>12.20144862754529</v>
       </c>
       <c r="M18">
-        <v>11.87385923762085</v>
+        <v>10.85596942000299</v>
       </c>
       <c r="N18">
-        <v>5.819712905235387</v>
+        <v>6.016422745996016</v>
       </c>
       <c r="O18">
-        <v>9.863667022366903</v>
+        <v>11.98625288959923</v>
       </c>
       <c r="P18">
-        <v>13.61841969902298</v>
+        <v>6.042375894035068</v>
       </c>
       <c r="Q18">
-        <v>17.4206418799241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.734477131336204</v>
+      </c>
+      <c r="R18">
+        <v>13.28659773611327</v>
+      </c>
+      <c r="S18">
+        <v>16.30796482269623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.47656458343706</v>
+        <v>14.02810425549583</v>
       </c>
       <c r="C19">
-        <v>7.674770117458299</v>
+        <v>8.068032415754223</v>
       </c>
       <c r="D19">
-        <v>5.174780637036418</v>
+        <v>5.430474918407137</v>
       </c>
       <c r="E19">
-        <v>7.099699050332904</v>
+        <v>7.282388450454912</v>
       </c>
       <c r="F19">
-        <v>23.82080217812742</v>
+        <v>22.53538805535435</v>
       </c>
       <c r="G19">
-        <v>2.117108080827004</v>
+        <v>6.216247975352326</v>
       </c>
       <c r="H19">
-        <v>3.992207926221826</v>
+        <v>3.777926143753581</v>
       </c>
       <c r="I19">
-        <v>3.605519657547552</v>
+        <v>3.303375021278348</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.04647081034243</v>
+        <v>15.94805995707094</v>
       </c>
       <c r="L19">
-        <v>5.951574182906819</v>
+        <v>12.45263758997468</v>
       </c>
       <c r="M19">
-        <v>11.90485707639294</v>
+        <v>11.0998306508174</v>
       </c>
       <c r="N19">
-        <v>6.196757520524956</v>
+        <v>5.988194035859915</v>
       </c>
       <c r="O19">
-        <v>10.2553047376351</v>
+        <v>12.02015083436375</v>
       </c>
       <c r="P19">
-        <v>13.63745316293536</v>
+        <v>6.431057181735691</v>
       </c>
       <c r="Q19">
-        <v>17.84268279952405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.12706033266191</v>
+      </c>
+      <c r="R19">
+        <v>13.29054727221562</v>
+      </c>
+      <c r="S19">
+        <v>16.71452063594588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.08782166658678</v>
+        <v>14.56250031227141</v>
       </c>
       <c r="C20">
-        <v>7.571257850021958</v>
+        <v>7.968003273198271</v>
       </c>
       <c r="D20">
-        <v>5.590037441568152</v>
+        <v>5.869671040060357</v>
       </c>
       <c r="E20">
-        <v>7.680114649927358</v>
+        <v>7.828139551532821</v>
       </c>
       <c r="F20">
-        <v>25.02349935789305</v>
+        <v>23.57667407314218</v>
       </c>
       <c r="G20">
-        <v>2.114918963683557</v>
+        <v>6.231277688708572</v>
       </c>
       <c r="H20">
-        <v>2.877955752673083</v>
+        <v>2.613405471555349</v>
       </c>
       <c r="I20">
-        <v>3.509213872732456</v>
+        <v>3.227180762668322</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.5854229025648</v>
+        <v>16.36950145060916</v>
       </c>
       <c r="L20">
-        <v>6.027144994741562</v>
+        <v>12.74026204837036</v>
       </c>
       <c r="M20">
-        <v>12.23451046082726</v>
+        <v>11.47023949482004</v>
       </c>
       <c r="N20">
-        <v>6.86476416479078</v>
+        <v>6.04023508259485</v>
       </c>
       <c r="O20">
-        <v>10.9862989092794</v>
+        <v>12.30463234230158</v>
       </c>
       <c r="P20">
-        <v>13.61610253518262</v>
+        <v>7.11363787515284</v>
       </c>
       <c r="Q20">
-        <v>18.50384859186846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.84694024828243</v>
+      </c>
+      <c r="R20">
+        <v>13.25205380167772</v>
+      </c>
+      <c r="S20">
+        <v>17.25474419084212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.97091818305163</v>
+        <v>15.24219620016425</v>
       </c>
       <c r="C21">
-        <v>7.85276911240635</v>
+        <v>8.013330712157016</v>
       </c>
       <c r="D21">
-        <v>5.822299877278874</v>
+        <v>6.306905891913779</v>
       </c>
       <c r="E21">
-        <v>7.854970799429097</v>
+        <v>8.041644848542791</v>
       </c>
       <c r="F21">
-        <v>25.4479656367248</v>
+        <v>23.22251433802391</v>
       </c>
       <c r="G21">
-        <v>2.110753993656202</v>
+        <v>11.04318661260267</v>
       </c>
       <c r="H21">
-        <v>2.640882631667919</v>
+        <v>2.424873016425146</v>
       </c>
       <c r="I21">
-        <v>3.33530970373793</v>
+        <v>3.104407602482893</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.62674011787533</v>
+        <v>16.00649952613237</v>
       </c>
       <c r="L21">
-        <v>6.07567595584983</v>
+        <v>12.36764047269618</v>
       </c>
       <c r="M21">
-        <v>12.93525866854652</v>
+        <v>11.34324815160454</v>
       </c>
       <c r="N21">
-        <v>7.075815596803135</v>
+        <v>6.069287565204164</v>
       </c>
       <c r="O21">
-        <v>11.44072211310705</v>
+        <v>12.75181289158541</v>
       </c>
       <c r="P21">
-        <v>13.4449918023559</v>
+        <v>7.30990931065084</v>
       </c>
       <c r="Q21">
-        <v>18.65302278552166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.22592480993556</v>
+      </c>
+      <c r="R21">
+        <v>13.08980104546583</v>
+      </c>
+      <c r="S21">
+        <v>16.8030917731319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.52102161124057</v>
+        <v>15.66013126677836</v>
       </c>
       <c r="C22">
-        <v>8.026807044047155</v>
+        <v>8.028529964954192</v>
       </c>
       <c r="D22">
-        <v>5.951965805350127</v>
+        <v>6.583701783080233</v>
       </c>
       <c r="E22">
-        <v>7.939980226858347</v>
+        <v>8.162953677915114</v>
       </c>
       <c r="F22">
-        <v>25.69843107919323</v>
+        <v>22.92188727527213</v>
       </c>
       <c r="G22">
-        <v>2.108118438833752</v>
+        <v>15.56889360115187</v>
       </c>
       <c r="H22">
-        <v>2.50001886490195</v>
+        <v>2.314112691265322</v>
       </c>
       <c r="I22">
-        <v>3.216180168956025</v>
+        <v>3.014443209805464</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.6476193417836</v>
+        <v>15.74242661562732</v>
       </c>
       <c r="L22">
-        <v>6.102191392959467</v>
+        <v>12.11903721897933</v>
       </c>
       <c r="M22">
-        <v>13.36946851230152</v>
+        <v>11.23677147960967</v>
       </c>
       <c r="N22">
-        <v>7.177335427887408</v>
+        <v>6.084930487959832</v>
       </c>
       <c r="O22">
-        <v>11.70383588331866</v>
+        <v>13.01590509574591</v>
       </c>
       <c r="P22">
-        <v>13.33344053322037</v>
+        <v>7.40028529636452</v>
       </c>
       <c r="Q22">
-        <v>18.74095533663054</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.43568595863902</v>
+      </c>
+      <c r="R22">
+        <v>12.99270159723795</v>
+      </c>
+      <c r="S22">
+        <v>16.46438498418845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.24291789848405</v>
+        <v>15.46900386066645</v>
       </c>
       <c r="C23">
-        <v>7.920151553358144</v>
+        <v>8.034674537292224</v>
       </c>
       <c r="D23">
-        <v>5.880898164062185</v>
+        <v>6.409730074573615</v>
       </c>
       <c r="E23">
-        <v>7.897092737599038</v>
+        <v>8.091521080981302</v>
       </c>
       <c r="F23">
-        <v>25.58479394719231</v>
+        <v>23.18532202359474</v>
       </c>
       <c r="G23">
-        <v>2.109502079196053</v>
+        <v>12.36232010816499</v>
       </c>
       <c r="H23">
-        <v>2.573996485828341</v>
+        <v>2.370273053996693</v>
       </c>
       <c r="I23">
-        <v>3.268957624714351</v>
+        <v>3.047654493416541</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.6520392716997</v>
+        <v>15.93895312334572</v>
       </c>
       <c r="L23">
-        <v>6.089104465742882</v>
+        <v>12.28832350575626</v>
       </c>
       <c r="M23">
-        <v>13.14050671225578</v>
+        <v>11.34033682101272</v>
       </c>
       <c r="N23">
-        <v>7.11950919433226</v>
+        <v>6.078186889619743</v>
       </c>
       <c r="O23">
-        <v>11.56613343492583</v>
+        <v>12.90241825029889</v>
       </c>
       <c r="P23">
-        <v>13.39410860969828</v>
+        <v>7.350647828943861</v>
       </c>
       <c r="Q23">
-        <v>18.70855436546597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.33489027352993</v>
+      </c>
+      <c r="R23">
+        <v>13.04398689541618</v>
+      </c>
+      <c r="S23">
+        <v>16.72416164894021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.1202629214389</v>
+        <v>14.5939285777907</v>
       </c>
       <c r="C24">
-        <v>7.529910379440913</v>
+        <v>7.927846621349619</v>
       </c>
       <c r="D24">
-        <v>5.609074255076572</v>
+        <v>5.886977545878846</v>
       </c>
       <c r="E24">
-        <v>7.728227142671129</v>
+        <v>7.873509108718106</v>
       </c>
       <c r="F24">
-        <v>25.13267512253011</v>
+        <v>23.68840739926573</v>
       </c>
       <c r="G24">
-        <v>2.114882395786207</v>
+        <v>6.202547112630831</v>
       </c>
       <c r="H24">
-        <v>2.862119899555651</v>
+        <v>2.597091728114203</v>
       </c>
       <c r="I24">
-        <v>3.492103384260342</v>
+        <v>3.206345827572146</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.65140154360244</v>
+        <v>16.43330581583918</v>
       </c>
       <c r="L24">
-        <v>6.036625896872863</v>
+        <v>12.79007380229034</v>
       </c>
       <c r="M24">
-        <v>12.23306416952988</v>
+        <v>11.51742068017393</v>
       </c>
       <c r="N24">
-        <v>6.903969076003571</v>
+        <v>6.04816251760872</v>
       </c>
       <c r="O24">
-        <v>11.02722368647737</v>
+        <v>12.30502983764647</v>
       </c>
       <c r="P24">
-        <v>13.62414538086044</v>
+        <v>7.154068579945741</v>
       </c>
       <c r="Q24">
-        <v>18.57332230908625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.88841563498417</v>
+      </c>
+      <c r="R24">
+        <v>13.25706437851246</v>
+      </c>
+      <c r="S24">
+        <v>17.32606707307862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.80702875746736</v>
+        <v>13.34358787992344</v>
       </c>
       <c r="C25">
-        <v>7.089697371384281</v>
+        <v>7.441770616073885</v>
       </c>
       <c r="D25">
-        <v>5.303995334952739</v>
+        <v>5.576954176523843</v>
       </c>
       <c r="E25">
-        <v>7.540735808847411</v>
+        <v>7.723534347932942</v>
       </c>
       <c r="F25">
-        <v>24.67067983413127</v>
+        <v>23.32560143421369</v>
       </c>
       <c r="G25">
-        <v>2.120933552251098</v>
+        <v>6.756467094845274</v>
       </c>
       <c r="H25">
-        <v>3.18726588792954</v>
+        <v>2.881927800523755</v>
       </c>
       <c r="I25">
-        <v>3.746400732283413</v>
+        <v>3.41554659824711</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.66863618835196</v>
+        <v>16.5122286328984</v>
       </c>
       <c r="L25">
-        <v>5.977155998260346</v>
+        <v>13.0188785448433</v>
       </c>
       <c r="M25">
-        <v>11.1714725750814</v>
+        <v>11.37332176750708</v>
       </c>
       <c r="N25">
-        <v>6.666614941588321</v>
+        <v>6.00271488462368</v>
       </c>
       <c r="O25">
-        <v>10.41822309992433</v>
+        <v>11.2987462376019</v>
       </c>
       <c r="P25">
-        <v>13.87739989260781</v>
+        <v>6.91223745174951</v>
       </c>
       <c r="Q25">
-        <v>18.45242911802614</v>
+        <v>10.28487310246667</v>
+      </c>
+      <c r="R25">
+        <v>13.47977568928303</v>
+      </c>
+      <c r="S25">
+        <v>17.26484634852169</v>
       </c>
     </row>
   </sheetData>
